--- a/Sprint 2 - Sprint Burndown Table & Chart.xlsx
+++ b/Sprint 2 - Sprint Burndown Table & Chart.xlsx
@@ -4,17 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="23500" windowHeight="15080" tabRatio="500"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="23500" windowHeight="15080" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Task Board" sheetId="1" r:id="rId1"/>
-    <sheet name="Group  Burndown chart" sheetId="2" r:id="rId2"/>
-    <sheet name="Ivens" sheetId="3" r:id="rId3"/>
-    <sheet name="Michelle" sheetId="4" r:id="rId4"/>
-    <sheet name="John" sheetId="5" r:id="rId5"/>
-    <sheet name="Damian" sheetId="6" r:id="rId6"/>
-    <sheet name="Mark" sheetId="7" r:id="rId7"/>
-    <sheet name="Raul" sheetId="8" r:id="rId8"/>
+    <sheet name="Group Burndown chart" sheetId="2" r:id="rId2"/>
+    <sheet name="Tiffany" sheetId="3" r:id="rId3"/>
+    <sheet name="Michael" sheetId="4" r:id="rId4"/>
+    <sheet name="Keith" sheetId="5" r:id="rId5"/>
+    <sheet name="Yeikel" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="51">
   <si>
     <t>Sprint #2 Task Board/Chart</t>
   </si>
@@ -46,9 +44,6 @@
     <t>Sum of Effort-Hour Estimate</t>
   </si>
   <si>
-    <t>Products edit view and routing (non functional) [0.5]</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -94,66 +89,22 @@
     <t>Day 6</t>
   </si>
   <si>
-    <t>Note</t>
-  </si>
-  <si>
     <t>Actual Hours</t>
   </si>
   <si>
     <t>User Story</t>
   </si>
   <si>
-    <t>As a consumer, I would like to use a simple page to login and access my personal account</t>
-  </si>
-  <si>
     <t>Subtotal</t>
   </si>
   <si>
     <t>Overall</t>
   </si>
   <si>
-    <t>These numbers come from the Sprint Task Board</t>
-  </si>
-  <si>
-    <t>TA wont notice this \/</t>
-  </si>
-  <si>
-    <t>we are the best group</t>
-  </si>
-  <si>
     <t>Note: This column references Estimates from the Sprint Task Board. Do not edit on this page.</t>
   </si>
   <si>
     <t>Individual Burndown Chart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As the client, I would like a page that will display products I will market towards my retail customers.
-</t>
-  </si>
-  <si>
-    <t>As the client, I would like a page that will display my products to my commercial clients (educators).</t>
-  </si>
-  <si>
-    <t>As a client, I would like a Twitter feed integrated with the announcements</t>
-  </si>
-  <si>
-    <t>As the seller, I would like to be able to sell my products at different prices depending on the type of user that is looking to purchase.</t>
-  </si>
-  <si>
-    <t>As a customer, I would like to be able to add things to my cart</t>
-  </si>
-  <si>
-    <t>As a developer, I would like to have product information integrated in a database.
-As a client, I would like to be able to add, edit and delete products</t>
-  </si>
-  <si>
-    <t>server routes, models, controllers, tutorials [4.5]</t>
-  </si>
-  <si>
-    <t>Create Product view and controller functions [3]</t>
-  </si>
-  <si>
-    <t>Overall [12.5]</t>
   </si>
   <si>
     <t>Individual Profiles</t>
@@ -232,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -265,11 +216,6 @@
       <i/>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Inconsolata"/>
     </font>
     <font>
       <u/>
@@ -319,44 +265,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -388,10 +336,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -409,6 +356,7 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -426,6 +374,7 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -454,11 +403,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Actual</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -472,7 +423,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Group  Burndown chart'!$A$7</c:f>
+              <c:f>'Group Burndown chart'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -495,7 +446,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Group  Burndown chart'!$B$6:$G$6</c:f>
+              <c:f>'Group Burndown chart'!$B$6:$G$6</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -521,28 +472,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Group  Burndown chart'!$B$7:$G$7</c:f>
+              <c:f>'Group Burndown chart'!$B$7:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -555,11 +488,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2054382840"/>
-        <c:axId val="2054383192"/>
+        <c:axId val="2117113432"/>
+        <c:axId val="2117116568"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2054382840"/>
+        <c:axId val="2117113432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -578,7 +511,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2054383192"/>
+        <c:crossAx val="2117116568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -586,7 +519,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2054383192"/>
+        <c:axId val="2117116568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -611,11 +544,13 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>Actual</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -637,13 +572,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2054382840"/>
+        <c:crossAx val="2117113432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -679,11 +615,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Profile User Story Burndown Chart </a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -697,12 +635,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ivens!$B$2</c:f>
+              <c:f>Tiffany!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -718,7 +653,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ivens!$C$1:$G$1</c:f>
+              <c:f>Tiffany!$C$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -741,25 +676,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ivens!$C$2:$G$2</c:f>
+              <c:f>Tiffany!$C$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -770,12 +690,9 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ivens!$B$3</c:f>
+              <c:f>Tiffany!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -791,7 +708,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ivens!$C$1:$G$1</c:f>
+              <c:f>Tiffany!$C$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -814,22 +731,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ivens!$C$3:$G$3</c:f>
+              <c:f>Tiffany!$C$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -840,12 +745,9 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ivens!$B$4</c:f>
+              <c:f>Tiffany!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -861,7 +763,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ivens!$C$1:$G$1</c:f>
+              <c:f>Tiffany!$C$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -884,22 +786,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ivens!$C$4:$G$4</c:f>
+              <c:f>Tiffany!$C$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -910,7 +800,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ivens!$B$5</c:f>
+              <c:f>Tiffany!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -931,7 +821,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ivens!$C$1:$G$1</c:f>
+              <c:f>Tiffany!$C$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -954,25 +844,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ivens!$C$5:$G$5</c:f>
+              <c:f>Tiffany!$C$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -983,7 +858,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ivens!$B$6</c:f>
+              <c:f>Tiffany!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1001,7 +876,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ivens!$C$1:$G$1</c:f>
+              <c:f>Tiffany!$C$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1024,7 +899,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ivens!$C$6:$G$6</c:f>
+              <c:f>Tiffany!$C$6:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1043,11 +918,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2117376744"/>
-        <c:axId val="2117382312"/>
+        <c:axId val="2118895304"/>
+        <c:axId val="2118900888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2117376744"/>
+        <c:axId val="2118895304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1063,11 +938,13 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>Tasks</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="cross"/>
@@ -1083,7 +960,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117382312"/>
+        <c:crossAx val="2118900888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1091,7 +968,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117382312"/>
+        <c:axId val="2118900888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1125,13 +1002,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117376744"/>
+        <c:crossAx val="2118895304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1167,11 +1045,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>Michelle's User Story Burndown Chart </a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>User Story Burndown Chart </a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1185,12 +1065,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Michelle!$B$2</c:f>
+              <c:f>Michael!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1206,7 +1083,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Michelle!$C$1:$G$1</c:f>
+              <c:f>Michael!$C$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1229,22 +1106,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Michelle!$C$2:$G$2</c:f>
+              <c:f>Michael!$C$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1255,12 +1120,9 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Michelle!$B$3</c:f>
+              <c:f>Michael!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1276,7 +1138,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Michelle!$C$1:$G$1</c:f>
+              <c:f>Michael!$C$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1299,22 +1161,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Michelle!$C$3:$G$3</c:f>
+              <c:f>Michael!$C$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1325,12 +1175,9 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Michelle!$B$4</c:f>
+              <c:f>Michael!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1346,7 +1193,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Michelle!$C$1:$G$1</c:f>
+              <c:f>Michael!$C$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1369,22 +1216,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Michelle!$C$4:$G$4</c:f>
+              <c:f>Michael!$C$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1395,7 +1230,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Michelle!$B$5</c:f>
+              <c:f>Michael!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1416,7 +1251,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Michelle!$C$1:$G$1</c:f>
+              <c:f>Michael!$C$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1439,22 +1274,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Michelle!$C$5:$G$5</c:f>
+              <c:f>Michael!$C$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1465,7 +1288,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Michelle!$B$6</c:f>
+              <c:f>Michael!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1483,7 +1306,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Michelle!$C$1:$G$1</c:f>
+              <c:f>Michael!$C$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1506,7 +1329,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Michelle!$C$6:$G$6</c:f>
+              <c:f>Michael!$C$6:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1520,12 +1343,9 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Michelle!$B$7</c:f>
+              <c:f>Michael!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Create page layout [3]</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1541,7 +1361,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Michelle!$C$1:$G$1</c:f>
+              <c:f>Michael!$C$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1564,10 +1384,13 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Michelle!$C$7:$G$7</c:f>
+              <c:f>Michael!$C$7:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1578,12 +1401,9 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Michelle!$B$8</c:f>
+              <c:f>Michael!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Allow team leader only [4]</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1599,7 +1419,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Michelle!$C$1:$G$1</c:f>
+              <c:f>Michael!$C$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1622,7 +1442,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Michelle!$C$8:$G$8</c:f>
+              <c:f>Michael!$C$8:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1636,12 +1456,9 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Michelle!$B$9</c:f>
+              <c:f>Michael!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Drop down rankings [4]</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1657,7 +1474,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Michelle!$C$1:$G$1</c:f>
+              <c:f>Michael!$C$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1680,7 +1497,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Michelle!$C$9:$G$9</c:f>
+              <c:f>Michael!$C$9:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1699,11 +1516,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2117451560"/>
-        <c:axId val="2117456904"/>
+        <c:axId val="2114350216"/>
+        <c:axId val="2114264408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2117451560"/>
+        <c:axId val="2114350216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1719,11 +1536,13 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>Tasks</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="cross"/>
@@ -1739,7 +1558,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117456904"/>
+        <c:crossAx val="2114264408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1747,7 +1566,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117456904"/>
+        <c:axId val="2114264408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1781,13 +1600,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117451560"/>
+        <c:crossAx val="2114350216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1823,11 +1643,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>John's User Story Burndown Chart </a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>User Story Burndown Chart </a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1841,12 +1663,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>John!$B$2</c:f>
+              <c:f>Keith!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1862,7 +1681,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>John!$C$1:$G$1</c:f>
+              <c:f>Keith!$C$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1885,25 +1704,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>John!$C$2:$G$2</c:f>
+              <c:f>Keith!$C$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1914,12 +1718,9 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>John!$B$3</c:f>
+              <c:f>Keith!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1935,7 +1736,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>John!$C$1:$G$1</c:f>
+              <c:f>Keith!$C$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1958,22 +1759,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>John!$C$3:$G$3</c:f>
+              <c:f>Keith!$C$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1984,12 +1773,9 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>John!$B$4</c:f>
+              <c:f>Keith!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2005,7 +1791,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>John!$C$1:$G$1</c:f>
+              <c:f>Keith!$C$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2028,25 +1814,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>John!$C$4:$G$4</c:f>
+              <c:f>Keith!$C$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2057,7 +1828,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>John!$B$5</c:f>
+              <c:f>Keith!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2078,7 +1849,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>John!$C$1:$G$1</c:f>
+              <c:f>Keith!$C$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2101,25 +1872,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>John!$C$5:$G$5</c:f>
+              <c:f>Keith!$C$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2130,7 +1886,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>John!$B$6</c:f>
+              <c:f>Keith!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -2148,7 +1904,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>John!$C$1:$G$1</c:f>
+              <c:f>Keith!$C$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2171,7 +1927,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>John!$C$6:$G$6</c:f>
+              <c:f>Keith!$C$6:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2190,11 +1946,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2117494296"/>
-        <c:axId val="2117499864"/>
+        <c:axId val="2114834360"/>
+        <c:axId val="2114837336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2117494296"/>
+        <c:axId val="2114834360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2210,11 +1966,13 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>Tasks</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="cross"/>
@@ -2230,7 +1988,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117499864"/>
+        <c:crossAx val="2114837336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2238,7 +1996,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117499864"/>
+        <c:axId val="2114837336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2272,13 +2030,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117494296"/>
+        <c:crossAx val="2114834360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2314,11 +2073,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Profile User Story Burndown Chart </a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2332,12 +2093,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Damian!$B$2</c:f>
+              <c:f>Yeikel!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Create page layout [3]</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2353,7 +2111,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Damian!$C$1:$G$1</c:f>
+              <c:f>Yeikel!$C$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2376,22 +2134,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Damian!$C$2:$G$2</c:f>
+              <c:f>Yeikel!$C$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2402,12 +2148,9 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Damian!$B$3</c:f>
+              <c:f>Yeikel!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Allow input fields [2]</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2423,7 +2166,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Damian!$C$1:$G$1</c:f>
+              <c:f>Yeikel!$C$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2446,22 +2189,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Damian!$C$3:$G$3</c:f>
+              <c:f>Yeikel!$C$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2472,12 +2203,9 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Damian!$B$4</c:f>
+              <c:f>Yeikel!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Save info [2]</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2493,7 +2221,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Damian!$C$1:$G$1</c:f>
+              <c:f>Yeikel!$C$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2516,22 +2244,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Damian!$C$4:$G$4</c:f>
+              <c:f>Yeikel!$C$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2542,11 +2258,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Damian!$B$5</c:f>
+              <c:f>Yeikel!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Watching tutorials [2]</c:v>
+                  <c:v>Overall</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2563,7 +2279,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Damian!$C$1:$G$1</c:f>
+              <c:f>Yeikel!$C$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2586,22 +2302,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Damian!$C$5:$G$5</c:f>
+              <c:f>Yeikel!$C$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2612,12 +2316,9 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Damian!$B$6</c:f>
+              <c:f>Yeikel!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Overall</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2633,7 +2334,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Damian!$C$1:$G$1</c:f>
+              <c:f>Yeikel!$C$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2656,25 +2357,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Damian!$C$6:$G$6</c:f>
+              <c:f>Yeikel!$C$6:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2690,11 +2376,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2117550792"/>
-        <c:axId val="2117556360"/>
+        <c:axId val="2114014072"/>
+        <c:axId val="2114430728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2117550792"/>
+        <c:axId val="2114014072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2710,11 +2396,13 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>Tasks</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="cross"/>
@@ -2730,7 +2418,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117556360"/>
+        <c:crossAx val="2114430728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2738,7 +2426,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117556360"/>
+        <c:axId val="2114430728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2772,1037 +2460,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117550792"/>
+        <c:crossAx val="2114014072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="18"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr sz="1600" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t>Mark's User Story Burndown Chart </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Mark!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Create page layout [3]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="3366CC"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Mark!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Day 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Day 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Mark!$C$2:$G$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Mark!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Allow input fields [2]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="DC3912"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Mark!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Day 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Day 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Mark!$C$3:$G$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Mark!$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Drop down details [3]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="FF9900"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Mark!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Day 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Day 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Mark!$C$4:$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Mark!$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Watching tutorials [2]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="109618"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Mark!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Day 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Day 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Mark!$C$5:$G$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Mark!$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Overall</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="990099"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Mark!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Day 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Day 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Mark!$C$6:$G$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2117590360"/>
-        <c:axId val="2117595928"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2117590360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Tasks</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2117595928"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2117595928"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="47625">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2117590360"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="18"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr sz="1600" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t>Raul's User Story Burndown Chart </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Raul!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>server routes, models, controllers, tutorials [4.5]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="3366CC"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Raul!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Day 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Day 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Raul!$C$2:$G$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Raul!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Format page [3]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="DC3912"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Raul!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Day 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Day 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Raul!$C$3:$G$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Raul!$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Create input fields [3]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="FF9900"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Raul!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Day 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Day 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Raul!$C$4:$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Raul!$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Create Product view and controller functions [3]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="109618"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Raul!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Day 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Day 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Raul!$C$5:$G$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Raul!$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Products edit view and routing (non functional) [0.5]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="990099"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Raul!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Day 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Day 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Raul!$C$6:$G$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2117661576"/>
-        <c:axId val="2117667144"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2117661576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Tasks</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2117667144"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2117667144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="47625">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2117661576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3975,76 +2640,6 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 5" title="Chart"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 6" title="Chart"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 7" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4386,7 +2981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -4434,25 +3029,25 @@
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>49</v>
+        <v>38</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="H4" s="1">
         <v>11</v>
@@ -4469,25 +3064,25 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="H6" s="1">
         <v>12</v>
@@ -4500,22 +3095,22 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H8" s="1">
         <v>9</v>
@@ -4527,25 +3122,25 @@
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H10" s="1">
         <v>21</v>
@@ -4554,27 +3149,27 @@
     <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B12" s="8">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H12" s="1">
         <v>10</v>
@@ -4586,25 +3181,25 @@
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B14" s="8">
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H14" s="1">
         <v>18</v>
@@ -4616,12 +3211,12 @@
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="H16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17">
         <f>SUM(B4:B15)</f>
@@ -4655,7 +3250,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -4664,85 +3261,58 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1">
-        <v>150</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7">
-        <f>Ivens!C5 + Michelle!C5 + John!C5 + Damian!C6 + Raul!C7 + Mark!C6</f>
-        <v>7.6</v>
-      </c>
-      <c r="C7">
-        <f>Ivens!D5 + Michelle!D5 + John!D5 + Damian!D6 + Raul!D7 + Mark!D6</f>
-        <v>16.5</v>
-      </c>
-      <c r="D7">
-        <f>Ivens!E5 + Michelle!E5 + John!E5 + Damian!E6 + Raul!E7 + Mark!E6</f>
-        <v>18.5</v>
-      </c>
-      <c r="E7">
-        <f>Ivens!F5 + Michelle!F5 + John!F5 + Damian!F6 + Raul!F7 + Mark!F6</f>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="F7">
-        <f>Ivens!G5 + Michelle!G5 + John!G5 + Damian!G6 + Raul!G7 + Mark!G6</f>
-        <v>4.5</v>
-      </c>
-      <c r="G7" s="16">
-        <f>Ivens!H5 + Michelle!H5 + John!H5 + Damian!H6 + Raul!H7 + Mark!H6</f>
-        <v>1.5</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="H12" s="1"/>
@@ -4754,14 +3324,10 @@
       <c r="H14" s="1"/>
     </row>
     <row r="21" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4778,59 +3344,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="A1:H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1" t="e">
-        <f>'Sprint Task Board'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C2" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
+      <c r="A2" s="13"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
       <c r="J2" s="4"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -4839,22 +3392,11 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="15"/>
-      <c r="B3" s="1" t="e">
-        <f>'Sprint Task Board'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C3" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.2</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
       <c r="J3" s="4"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -4863,22 +3405,11 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1">
       <c r="A4" s="15"/>
-      <c r="B4" s="1" t="e">
-        <f>'Sprint Task Board'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C4" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="J4" s="4"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -4887,31 +3418,16 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="17">
-        <f t="shared" ref="C5:G5" si="0">SUM(C2:C4)</f>
-        <v>0.6</v>
-      </c>
-      <c r="D5" s="6">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="G5" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -4927,18 +3443,19 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="C7" s="18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J7" s="4"/>
       <c r="N7" s="6"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="5" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4952,7 +3469,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -4962,50 +3481,38 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="1" t="e">
-        <f>'Sprint Task Board'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C2" s="14">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
+      <c r="A2" s="13"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
       <c r="J2" s="4"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -5014,22 +3521,11 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="15"/>
-      <c r="B3" s="1" t="e">
-        <f>'Sprint Task Board'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C3" s="14">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
       <c r="J3" s="4"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -5038,22 +3534,11 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1">
       <c r="A4" s="15"/>
-      <c r="B4" s="1" t="e">
-        <f>'Sprint Task Board'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C4" s="14">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="J4" s="4"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -5062,27 +3547,16 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="17">
-        <f t="shared" ref="C5:F5" si="0">SUM(C2:C4)</f>
-        <v>2</v>
-      </c>
-      <c r="D5" s="6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E5" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -5097,33 +3571,20 @@
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="str">
-        <f>'Sprint Task Board'!C14</f>
-        <v>Create page layout [3]</v>
-      </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="J7" s="4"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14">
-      <c r="B8" s="19" t="str">
-        <f>'Sprint Task Board'!D14</f>
-        <v>Allow team leader only [4]</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="B9" s="19" t="str">
-        <f>'Sprint Task Board'!E14</f>
-        <v>Drop down rankings [4]</v>
+    <row r="8" spans="1:14" ht="12"/>
+    <row r="9" spans="1:14" ht="12">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1">
       <c r="G12" s="1"/>
@@ -5155,7 +3616,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -5165,56 +3628,38 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="1" t="e">
-        <f>'Sprint Task Board'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C2" s="14">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
+      <c r="A2" s="13"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
       <c r="J2" s="4"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -5223,25 +3668,11 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="15"/>
-      <c r="B3" s="1" t="e">
-        <f>'Sprint Task Board'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C3" s="14">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
       <c r="J3" s="4"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -5250,28 +3681,11 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1">
       <c r="A4" s="15"/>
-      <c r="B4" s="1" t="e">
-        <f>'Sprint Task Board'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C4" s="14">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="J4" s="4"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -5280,33 +3694,16 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="17">
-        <f t="shared" ref="C5:F5" si="0">SUM(C2:C4)</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E5" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -5321,15 +3718,22 @@
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="C7" s="18"/>
+      <c r="C7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
       <c r="J7" s="4"/>
       <c r="N7" s="6"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1">
       <c r="G12" s="1"/>
@@ -5361,7 +3765,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -5370,51 +3776,37 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <f>'Sprint Task Board'!C8</f>
-        <v>Create page layout [3]</v>
-      </c>
-      <c r="C2" s="14">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
+      <c r="A2" s="13"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="J2" s="4"/>
       <c r="K2" s="1"/>
@@ -5424,22 +3816,11 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="15"/>
-      <c r="B3" s="1" t="str">
-        <f>'Sprint Task Board'!D8</f>
-        <v>Allow input fields [2]</v>
-      </c>
-      <c r="C3" s="14">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
       <c r="J3" s="4"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -5448,22 +3829,11 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1">
       <c r="A4" s="15"/>
-      <c r="B4" s="1" t="str">
-        <f>'Sprint Task Board'!E8</f>
-        <v>Save info [2]</v>
-      </c>
-      <c r="C4" s="14">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="J4" s="4"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -5471,22 +3841,17 @@
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1">
-      <c r="B5" t="str">
-        <f>'Sprint Task Board'!F8</f>
-        <v>Watching tutorials [2]</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3</v>
-      </c>
+      <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -5494,32 +3859,6 @@
       <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="17">
-        <f>SUM(C2:C4)</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <f t="shared" ref="D6:G6" si="0">SUM(D2:D5)</f>
-        <v>3</v>
-      </c>
-      <c r="E6" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="J6" s="4"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -5528,485 +3867,21 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="C7" s="18" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
       <c r="J7" s="4"/>
       <c r="N7" s="6"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="37.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <f>'Sprint Task Board'!C12</f>
-        <v>Create page layout [3]</v>
-      </c>
-      <c r="C2" s="14">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="1" t="str">
-        <f>'Sprint Task Board'!D12</f>
-        <v>Allow input fields [2]</v>
-      </c>
-      <c r="C3" s="14">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="1" t="str">
-        <f>'Sprint Task Board'!E12</f>
-        <v>Drop down details [3]</v>
-      </c>
-      <c r="C4" s="14">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1">
-      <c r="B5" s="1" t="str">
-        <f>'Sprint Task Board'!F12</f>
-        <v>Watching tutorials [2]</v>
-      </c>
-      <c r="C5" s="14">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="17">
-        <f t="shared" ref="C6:H6" si="0">SUM(C2:C5)</f>
-        <v>2</v>
-      </c>
-      <c r="D6" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E6" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G6" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="C7" s="18"/>
-      <c r="J7" s="4"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1">
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1">
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1">
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1">
-      <c r="G15" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="2" width="58.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="1" t="str">
-        <f>'Sprint Task Board'!D4</f>
-        <v>Format page [3]</v>
-      </c>
-      <c r="C3" s="14">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="1" t="str">
-        <f>'Sprint Task Board'!E4</f>
-        <v>Create input fields [3]</v>
-      </c>
-      <c r="C4" s="14">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1">
-      <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="14">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1">
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="14">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="17">
-        <f t="shared" ref="C7:H7" si="0">SUM(C2:C6)</f>
-        <v>2</v>
-      </c>
-      <c r="D7" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E7" s="6">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="H7" s="6">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1">
-      <c r="C8" s="18"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="B9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
